--- a/tp2/Excels/tp2.3-Qatar22.xlsx
+++ b/tp2/Excels/tp2.3-Qatar22.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tp-BaseDatos\basedatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tp-BaseDatos\basedatos\tp2\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5421E6F-D8C1-4595-900B-66A06098BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E795A-125E-41D9-99E3-49BF9088D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18900" windowHeight="10965" xr2:uid="{647D0041-CE85-4AC3-8872-010B583F20A2}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18900" windowHeight="10965" activeTab="1" xr2:uid="{647D0041-CE85-4AC3-8872-010B583F20A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ej1" sheetId="1" r:id="rId1"/>
+    <sheet name="ej2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>Partido</t>
   </si>
@@ -103,6 +104,225 @@
   </si>
   <si>
     <t>final</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Duracion</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Selección</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Cap. Max</t>
+  </si>
+  <si>
+    <t>Cap. Hab</t>
+  </si>
+  <si>
+    <t>Policias</t>
+  </si>
+  <si>
+    <t>cod.Num Ticket</t>
+  </si>
+  <si>
+    <t>Vestimenta</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Benicio</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>eduardo</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Lieb</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>medina</t>
+  </si>
+  <si>
+    <t>Agentina</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Scaloni</t>
+  </si>
+  <si>
+    <t>dinis</t>
+  </si>
+  <si>
+    <t>deschamps</t>
+  </si>
+  <si>
+    <t>voller</t>
+  </si>
+  <si>
+    <t>SedeAFA</t>
+  </si>
+  <si>
+    <t>SedeAl</t>
+  </si>
+  <si>
+    <t>SedeMex</t>
+  </si>
+  <si>
+    <t>SedeFr</t>
+  </si>
+  <si>
+    <t>SedeBR</t>
+  </si>
+  <si>
+    <t>Lusail</t>
+  </si>
+  <si>
+    <t>Al Bayt.</t>
+  </si>
+  <si>
+    <t>Abu Aboud.</t>
+  </si>
+  <si>
+    <t>Al Thumama.</t>
+  </si>
+  <si>
+    <t>Bin Ali.</t>
+  </si>
+  <si>
+    <t>45mil</t>
+  </si>
+  <si>
+    <t>39mil</t>
+  </si>
+  <si>
+    <t>89mil</t>
+  </si>
+  <si>
+    <t>60mil</t>
+  </si>
+  <si>
+    <t>49mil</t>
+  </si>
+  <si>
+    <t>90min</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>SemiFinal</t>
+  </si>
+  <si>
+    <t>Cuartos</t>
+  </si>
+  <si>
+    <t>Octavos</t>
+  </si>
+  <si>
+    <t>45vs41</t>
+  </si>
+  <si>
+    <t>41vs43</t>
+  </si>
+  <si>
+    <t>42vs45</t>
+  </si>
+  <si>
+    <t>44vs43</t>
+  </si>
+  <si>
+    <t>45vs44</t>
+  </si>
+  <si>
+    <t>AñoActividad</t>
+  </si>
+  <si>
+    <t>103min</t>
   </si>
 </sst>
 </file>
@@ -132,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,17 +405,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD232E45-EC9B-41FD-862E-86A5CC0ED7B0}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,133 +750,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>44880</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>45000</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>44888</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>39000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>44896</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>54000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44904</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>66000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44912</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>82000</v>
       </c>
     </row>
@@ -671,4 +903,600 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7FC606-B6C5-41BE-A792-A37C5850A65B}">
+  <dimension ref="A1:AJ8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1220</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4">
+        <v>112</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="4">
+        <v>505</v>
+      </c>
+      <c r="I3" s="4">
+        <v>110</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44877</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="4">
+        <v>456645</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2004</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="4">
+        <v>41</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="4">
+        <v>501</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4">
+        <v>500</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="4">
+        <v>114</v>
+      </c>
+      <c r="E4" s="4">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="4">
+        <v>502</v>
+      </c>
+      <c r="I4" s="4">
+        <v>111</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44879</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="4">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="4">
+        <v>342344</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1999</v>
+      </c>
+      <c r="T4" s="4">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="4">
+        <v>502</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4">
+        <v>267</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1445</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="4">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="4">
+        <v>501</v>
+      </c>
+      <c r="I5" s="4">
+        <v>112</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44881</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4">
+        <v>12</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="4">
+        <v>332423</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2012</v>
+      </c>
+      <c r="T5" s="4">
+        <v>43</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="4">
+        <v>503</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4">
+        <v>345</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5667</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4">
+        <v>111</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="4">
+        <v>503</v>
+      </c>
+      <c r="I6" s="4">
+        <v>113</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44883</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="4">
+        <v>13</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="4">
+        <v>123434</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2016</v>
+      </c>
+      <c r="T6" s="4">
+        <v>44</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>504</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4">
+        <v>455</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>44</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>23453</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="4">
+        <v>113</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="4">
+        <v>504</v>
+      </c>
+      <c r="I7" s="4">
+        <v>114</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44885</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4">
+        <v>14</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="4">
+        <v>869385</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2004</v>
+      </c>
+      <c r="T7" s="4">
+        <v>45</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>505</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4">
+        <v>322</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L8" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tp2/Excels/tp2.3-Qatar22.xlsx
+++ b/tp2/Excels/tp2.3-Qatar22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tp-BaseDatos\basedatos\tp2\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E795A-125E-41D9-99E3-49BF9088D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311745F4-9C64-4B90-9B31-ECD5BD36AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="18900" windowHeight="10965" activeTab="1" xr2:uid="{647D0041-CE85-4AC3-8872-010B583F20A2}"/>
   </bookViews>
